--- a/lab06/ExcelAnalysis.xlsx
+++ b/lab06/ExcelAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jantar\uni-data-warehouse\lab06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B7CBC6-00A2-43C3-9C29-507839F6460F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D8851B-065E-44A9-A22D-3FFDA87E59A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E48C8BCD-939F-42B2-9A29-188705BE0DA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E48C8BCD-939F-42B2-9A29-188705BE0DA9}"/>
   </bookViews>
   <sheets>
     <sheet name="bike sales" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
   <calcPr calcId="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="8" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>Order Qty</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>(Multiple Items)</t>
+  </si>
+  <si>
+    <t>Max Discount</t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -781,6 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2109,6 +2113,234 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2225,16 +2457,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1032</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5750</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32153</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22997</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2354,16 +2586,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7963</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28494</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37748</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16063</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2483,16 +2715,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2246</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19228</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37180</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15016</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,16 +2844,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1647</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15107</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24707</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7583</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8124,16 +8356,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>14289</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42864</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8372,178 +8604,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jantar" refreshedDate="45781.534779166665" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC43C714-3A94-4D24-A523-F366C8B6633A}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="11">
-    <cacheField name="[DIM PRODUCT].[Category Name].[Category Name]" caption="Category Name" numFmtId="0" hierarchy="7" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[DIM CUSTOMER].[Country Region Code].[Country Region Code]" caption="Country Region Code" numFmtId="0" hierarchy="1" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[DIM PRODUCT].[Product Category Hierarchy].[Category Name]" caption="Category Name" numFmtId="0" hierarchy="11" level="1">
-      <sharedItems count="4">
-        <s v="[DIM PRODUCT].[Product Category Hierarchy].[Category Name].&amp;[Accessories]" c="Accessories"/>
-        <s v="[DIM PRODUCT].[Product Category Hierarchy].[Category Name].&amp;[Bikes]" c="Bikes"/>
-        <s v="[DIM PRODUCT].[Product Category Hierarchy].[Category Name].&amp;[Clothing]" c="Clothing"/>
-        <s v="[DIM PRODUCT].[Product Category Hierarchy].[Category Name].&amp;[Components]" c="Components"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[DIM PRODUCT].[Product Category Hierarchy].[Sub Category Name]" caption="Sub Category Name" numFmtId="0" hierarchy="11" level="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[DIM PRODUCT].[Product Category Hierarchy].[Name]" caption="Name" numFmtId="0" hierarchy="11" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[DIM PRODUCT].[Product Category Hierarchy].[Sub Category Name].[Category Name]" caption="Category Name" propertyName="Category Name" numFmtId="0" hierarchy="11" level="2" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Order Date].[Date Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="20" level="1">
-      <sharedItems count="4">
-        <s v="[Order Date].[Date Hierarchy].[Rok].&amp;[2011]" c="2011"/>
-        <s v="[Order Date].[Date Hierarchy].[Rok].&amp;[2012]" c="2012"/>
-        <s v="[Order Date].[Date Hierarchy].[Rok].&amp;[2013]" c="2013"/>
-        <s v="[Order Date].[Date Hierarchy].[Rok].&amp;[2014]" c="2014"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Order Date].[Date Hierarchy].[Kwartal]" caption="Kwartal" numFmtId="0" hierarchy="20" level="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Order Date].[Date Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="20" level="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Order Date].[Date Hierarchy].[Dzien Miesiaca]" caption="Dzien Miesiaca" numFmtId="0" hierarchy="20" level="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Measures].[Order Qty]" caption="Order Qty" numFmtId="0" hierarchy="40" level="32767"/>
-  </cacheFields>
-  <cacheHierarchies count="50">
-    <cacheHierarchy uniqueName="[DIM CUSTOMER].[City]" caption="City" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[City].[All]" allUniqueName="[DIM CUSTOMER].[City].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Country Region Code]" caption="Country Region Code" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Country Region Code].[All]" allUniqueName="[DIM CUSTOMER].[Country Region Code].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Customer Geography Hierarchy]" caption="Customer Geography Hierarchy" defaultMemberUniqueName="[DIM CUSTOMER].[Customer Geography Hierarchy].[All]" allUniqueName="[DIM CUSTOMER].[Customer Geography Hierarchy].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="4" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Customer ID]" caption="Customer ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Customer ID].[All]" allUniqueName="[DIM CUSTOMER].[Customer ID].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Group]" caption="Group" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Group].[All]" allUniqueName="[DIM CUSTOMER].[Group].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Names]" caption="Names" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Names].[All]" allUniqueName="[DIM CUSTOMER].[Names].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Territory Name]" caption="Territory Name" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Territory Name].[All]" allUniqueName="[DIM CUSTOMER].[Territory Name].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM PRODUCT].[Category Name]" caption="Category Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Category Name].[All]" allUniqueName="[DIM PRODUCT].[Category Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[DIM PRODUCT].[Color]" caption="Color" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Color].[All]" allUniqueName="[DIM PRODUCT].[Color].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM PRODUCT].[List Price]" caption="List Price" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[List Price].[All]" allUniqueName="[DIM PRODUCT].[List Price].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM PRODUCT].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Name].[All]" allUniqueName="[DIM PRODUCT].[Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM PRODUCT].[Product Category Hierarchy]" caption="Product Category Hierarchy" defaultMemberUniqueName="[DIM PRODUCT].[Product Category Hierarchy].[All]" allUniqueName="[DIM PRODUCT].[Product Category Hierarchy].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="4" unbalanced="0">
-      <fieldsUsage count="4">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-        <fieldUsage x="3"/>
-        <fieldUsage x="4"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[DIM PRODUCT].[Product ID]" caption="Product ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Product ID].[All]" allUniqueName="[DIM PRODUCT].[Product ID].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM PRODUCT].[Sub Category Name]" caption="Sub Category Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Sub Category Name].[All]" allUniqueName="[DIM PRODUCT].[Sub Category Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Country Region Code]" caption="Country Region Code" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Country Region Code].[All]" allUniqueName="[DIM SALESPERSON].[Country Region Code].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Gender]" caption="Gender" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Gender].[All]" allUniqueName="[DIM SALESPERSON].[Gender].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Group]" caption="Group" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Group].[All]" allUniqueName="[DIM SALESPERSON].[Group].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Names]" caption="Names" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Names].[All]" allUniqueName="[DIM SALESPERSON].[Names].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Sales Geography Hierarchy]" caption="Sales Geography Hierarchy" defaultMemberUniqueName="[DIM SALESPERSON].[Sales Geography Hierarchy].[All]" allUniqueName="[DIM SALESPERSON].[Sales Geography Hierarchy].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="4" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Sales Person ID]" caption="Sales Person ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Sales Person ID].[All]" allUniqueName="[DIM SALESPERSON].[Sales Person ID].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Order Date].[Date Hierarchy]" caption="Order Date.Date Hierarchy" defaultMemberUniqueName="[Order Date].[Date Hierarchy].[All]" allUniqueName="[Order Date].[Date Hierarchy].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="5" unbalanced="0">
-      <fieldsUsage count="5">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="6"/>
-        <fieldUsage x="7"/>
-        <fieldUsage x="8"/>
-        <fieldUsage x="9"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Order Date].[Dzien Miesiaca]" caption="Order Date.Dzien Miesiaca" attribute="1" defaultMemberUniqueName="[Order Date].[Dzien Miesiaca].[All]" allUniqueName="[Order Date].[Dzien Miesiaca].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Order Date].[Dzien Tyg]" caption="Order Date.Dzien Tyg" attribute="1" defaultMemberUniqueName="[Order Date].[Dzien Tyg].[All]" allUniqueName="[Order Date].[Dzien Tyg].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Order Date].[Dzien Tyg Slownie]" caption="Order Date.Dzien Tyg Slownie" attribute="1" defaultMemberUniqueName="[Order Date].[Dzien Tyg Slownie].[All]" allUniqueName="[Order Date].[Dzien Tyg Slownie].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Order Date].[Full Date]" caption="Order Date.Full Date" attribute="1" defaultMemberUniqueName="[Order Date].[Full Date].[All]" allUniqueName="[Order Date].[Full Date].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Order Date].[Kwartal]" caption="Order Date.Kwartal" attribute="1" defaultMemberUniqueName="[Order Date].[Kwartal].[All]" allUniqueName="[Order Date].[Kwartal].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Order Date].[Miesiac]" caption="Order Date.Miesiac" attribute="1" defaultMemberUniqueName="[Order Date].[Miesiac].[All]" allUniqueName="[Order Date].[Miesiac].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Order Date].[Miesiac Slownie]" caption="Order Date.Miesiac Slownie" attribute="1" defaultMemberUniqueName="[Order Date].[Miesiac Slownie].[All]" allUniqueName="[Order Date].[Miesiac Slownie].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Order Date].[PK TIME]" caption="Order Date.PK TIME" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Order Date].[PK TIME].[All]" allUniqueName="[Order Date].[PK TIME].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Order Date].[Rok]" caption="Order Date.Rok" attribute="1" defaultMemberUniqueName="[Order Date].[Rok].[All]" allUniqueName="[Order Date].[Rok].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship Date].[Date Hierarchy]" caption="Ship Date.Date Hierarchy" defaultMemberUniqueName="[Ship Date].[Date Hierarchy].[All]" allUniqueName="[Ship Date].[Date Hierarchy].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship Date].[Dzien Miesiaca]" caption="Ship Date.Dzien Miesiaca" attribute="1" defaultMemberUniqueName="[Ship Date].[Dzien Miesiaca].[All]" allUniqueName="[Ship Date].[Dzien Miesiaca].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship Date].[Dzien Tyg]" caption="Ship Date.Dzien Tyg" attribute="1" defaultMemberUniqueName="[Ship Date].[Dzien Tyg].[All]" allUniqueName="[Ship Date].[Dzien Tyg].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship Date].[Dzien Tyg Slownie]" caption="Ship Date.Dzien Tyg Slownie" attribute="1" defaultMemberUniqueName="[Ship Date].[Dzien Tyg Slownie].[All]" allUniqueName="[Ship Date].[Dzien Tyg Slownie].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship Date].[Full Date]" caption="Ship Date.Full Date" attribute="1" defaultMemberUniqueName="[Ship Date].[Full Date].[All]" allUniqueName="[Ship Date].[Full Date].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship Date].[Kwartal]" caption="Ship Date.Kwartal" attribute="1" defaultMemberUniqueName="[Ship Date].[Kwartal].[All]" allUniqueName="[Ship Date].[Kwartal].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship Date].[Miesiac]" caption="Ship Date.Miesiac" attribute="1" defaultMemberUniqueName="[Ship Date].[Miesiac].[All]" allUniqueName="[Ship Date].[Miesiac].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship Date].[Miesiac Slownie]" caption="Ship Date.Miesiac Slownie" attribute="1" defaultMemberUniqueName="[Ship Date].[Miesiac Slownie].[All]" allUniqueName="[Ship Date].[Miesiac Slownie].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship Date].[PK TIME]" caption="Ship Date.PK TIME" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Ship Date].[PK TIME].[All]" allUniqueName="[Ship Date].[PK TIME].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Ship Date].[Rok]" caption="Ship Date.Rok" attribute="1" defaultMemberUniqueName="[Ship Date].[Rok].[All]" allUniqueName="[Ship Date].[Rok].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Order Qty]" caption="Order Qty" measure="1" displayFolder="" measureGroup="FACT SALES" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="10"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Unit Price Discount]" caption="Unit Price Discount" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Line Total]" caption="Line Total" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[FACT SALES Count]" caption="FACT SALES Count" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Max Discount]" caption="Max Discount" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Max OrderQty]" caption="Max OrderQty" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Sales Person ID Distinct Count]" caption="Sales Person ID Distinct Count" measure="1" displayFolder="" measureGroup="FACT SALES 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Customer ID Distinct Count]" caption="Customer ID Distinct Count" measure="1" displayFolder="" measureGroup="FACT SALES 2" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Product ID Distinct Count]" caption="Product ID Distinct Count" measure="1" displayFolder="" measureGroup="FACT SALES 3" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[AvgUnitPriceDiscount]" caption="AvgUnitPriceDiscount" measure="1" displayFolder="" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="6">
-    <dimension name="DIM CUSTOMER" uniqueName="[DIM CUSTOMER]" caption="DIM CUSTOMER"/>
-    <dimension name="DIM PRODUCT" uniqueName="[DIM PRODUCT]" caption="DIM PRODUCT"/>
-    <dimension name="DIM SALESPERSON" uniqueName="[DIM SALESPERSON]" caption="DIM SALESPERSON"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Order Date" uniqueName="[Order Date]" caption="Order Date"/>
-    <dimension name="Ship Date" uniqueName="[Ship Date]" caption="Ship Date"/>
-  </dimensions>
-  <measureGroups count="4">
-    <measureGroup name="FACT SALES" caption="FACT SALES"/>
-    <measureGroup name="FACT SALES 1" caption="FACT SALES 1"/>
-    <measureGroup name="FACT SALES 2" caption="FACT SALES 2"/>
-    <measureGroup name="FACT SALES 3" caption="FACT SALES 3"/>
-  </measureGroups>
-  <maps count="20">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="4"/>
-    <map measureGroup="0" dimension="5"/>
-    <map measureGroup="1" dimension="0"/>
-    <map measureGroup="1" dimension="1"/>
-    <map measureGroup="1" dimension="2"/>
-    <map measureGroup="1" dimension="4"/>
-    <map measureGroup="1" dimension="5"/>
-    <map measureGroup="2" dimension="0"/>
-    <map measureGroup="2" dimension="1"/>
-    <map measureGroup="2" dimension="2"/>
-    <map measureGroup="2" dimension="4"/>
-    <map measureGroup="2" dimension="5"/>
-    <map measureGroup="3" dimension="0"/>
-    <map measureGroup="3" dimension="1"/>
-    <map measureGroup="3" dimension="2"/>
-    <map measureGroup="3" dimension="4"/>
-    <map measureGroup="3" dimension="5"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jantar" refreshedDate="45781.538155208335" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7A8806C0-A03D-4470-A84E-4572DCE83C15}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="10">
@@ -8745,6 +8805,178 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jantar" refreshedDate="45781.90054722222" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC43C714-3A94-4D24-A523-F366C8B6633A}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="11">
+    <cacheField name="[DIM PRODUCT].[Category Name].[Category Name]" caption="Category Name" numFmtId="0" hierarchy="7" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM CUSTOMER].[Country Region Code].[Country Region Code]" caption="Country Region Code" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM PRODUCT].[Product Category Hierarchy].[Category Name]" caption="Category Name" numFmtId="0" hierarchy="11" level="1">
+      <sharedItems count="4">
+        <s v="[DIM PRODUCT].[Product Category Hierarchy].[Category Name].&amp;[Accessories]" c="Accessories"/>
+        <s v="[DIM PRODUCT].[Product Category Hierarchy].[Category Name].&amp;[Bikes]" c="Bikes"/>
+        <s v="[DIM PRODUCT].[Product Category Hierarchy].[Category Name].&amp;[Clothing]" c="Clothing"/>
+        <s v="[DIM PRODUCT].[Product Category Hierarchy].[Category Name].&amp;[Components]" c="Components"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[DIM PRODUCT].[Product Category Hierarchy].[Sub Category Name]" caption="Sub Category Name" numFmtId="0" hierarchy="11" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM PRODUCT].[Product Category Hierarchy].[Name]" caption="Name" numFmtId="0" hierarchy="11" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[DIM PRODUCT].[Product Category Hierarchy].[Sub Category Name].[Category Name]" caption="Category Name" propertyName="Category Name" numFmtId="0" hierarchy="11" level="2" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Order Date].[Date Hierarchy].[Rok]" caption="Rok" numFmtId="0" hierarchy="20" level="1">
+      <sharedItems count="4">
+        <s v="[Order Date].[Date Hierarchy].[Rok].&amp;[2011]" c="2011"/>
+        <s v="[Order Date].[Date Hierarchy].[Rok].&amp;[2012]" c="2012"/>
+        <s v="[Order Date].[Date Hierarchy].[Rok].&amp;[2013]" c="2013"/>
+        <s v="[Order Date].[Date Hierarchy].[Rok].&amp;[2014]" c="2014"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Order Date].[Date Hierarchy].[Kwartal]" caption="Kwartal" numFmtId="0" hierarchy="20" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Order Date].[Date Hierarchy].[Miesiac]" caption="Miesiac" numFmtId="0" hierarchy="20" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Order Date].[Date Hierarchy].[Dzien Miesiaca]" caption="Dzien Miesiaca" numFmtId="0" hierarchy="20" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Measures].[Max Discount]" caption="Max Discount" numFmtId="0" hierarchy="44" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="50">
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[City]" caption="City" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[City].[All]" allUniqueName="[DIM CUSTOMER].[City].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Country Region Code]" caption="Country Region Code" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Country Region Code].[All]" allUniqueName="[DIM CUSTOMER].[Country Region Code].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Customer Geography Hierarchy]" caption="Customer Geography Hierarchy" defaultMemberUniqueName="[DIM CUSTOMER].[Customer Geography Hierarchy].[All]" allUniqueName="[DIM CUSTOMER].[Customer Geography Hierarchy].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="4" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Customer ID]" caption="Customer ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Customer ID].[All]" allUniqueName="[DIM CUSTOMER].[Customer ID].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Group]" caption="Group" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Group].[All]" allUniqueName="[DIM CUSTOMER].[Group].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Names]" caption="Names" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Names].[All]" allUniqueName="[DIM CUSTOMER].[Names].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM CUSTOMER].[Territory Name]" caption="Territory Name" attribute="1" defaultMemberUniqueName="[DIM CUSTOMER].[Territory Name].[All]" allUniqueName="[DIM CUSTOMER].[Territory Name].[All]" dimensionUniqueName="[DIM CUSTOMER]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Category Name]" caption="Category Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Category Name].[All]" allUniqueName="[DIM PRODUCT].[Category Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Color]" caption="Color" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Color].[All]" allUniqueName="[DIM PRODUCT].[Color].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[List Price]" caption="List Price" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[List Price].[All]" allUniqueName="[DIM PRODUCT].[List Price].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Name].[All]" allUniqueName="[DIM PRODUCT].[Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Product Category Hierarchy]" caption="Product Category Hierarchy" defaultMemberUniqueName="[DIM PRODUCT].[Product Category Hierarchy].[All]" allUniqueName="[DIM PRODUCT].[Product Category Hierarchy].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="4" unbalanced="0">
+      <fieldsUsage count="4">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Product ID]" caption="Product ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Product ID].[All]" allUniqueName="[DIM PRODUCT].[Product ID].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM PRODUCT].[Sub Category Name]" caption="Sub Category Name" attribute="1" defaultMemberUniqueName="[DIM PRODUCT].[Sub Category Name].[All]" allUniqueName="[DIM PRODUCT].[Sub Category Name].[All]" dimensionUniqueName="[DIM PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Country Region Code]" caption="Country Region Code" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Country Region Code].[All]" allUniqueName="[DIM SALESPERSON].[Country Region Code].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Gender]" caption="Gender" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Gender].[All]" allUniqueName="[DIM SALESPERSON].[Gender].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Group]" caption="Group" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Group].[All]" allUniqueName="[DIM SALESPERSON].[Group].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Names]" caption="Names" attribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Names].[All]" allUniqueName="[DIM SALESPERSON].[Names].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Sales Geography Hierarchy]" caption="Sales Geography Hierarchy" defaultMemberUniqueName="[DIM SALESPERSON].[Sales Geography Hierarchy].[All]" allUniqueName="[DIM SALESPERSON].[Sales Geography Hierarchy].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="4" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM SALESPERSON].[Sales Person ID]" caption="Sales Person ID" attribute="1" keyAttribute="1" defaultMemberUniqueName="[DIM SALESPERSON].[Sales Person ID].[All]" allUniqueName="[DIM SALESPERSON].[Sales Person ID].[All]" dimensionUniqueName="[DIM SALESPERSON]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Date Hierarchy]" caption="Order Date.Date Hierarchy" defaultMemberUniqueName="[Order Date].[Date Hierarchy].[All]" allUniqueName="[Order Date].[Date Hierarchy].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="5" unbalanced="0">
+      <fieldsUsage count="5">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="6"/>
+        <fieldUsage x="7"/>
+        <fieldUsage x="8"/>
+        <fieldUsage x="9"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Order Date].[Dzien Miesiaca]" caption="Order Date.Dzien Miesiaca" attribute="1" defaultMemberUniqueName="[Order Date].[Dzien Miesiaca].[All]" allUniqueName="[Order Date].[Dzien Miesiaca].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Dzien Tyg]" caption="Order Date.Dzien Tyg" attribute="1" defaultMemberUniqueName="[Order Date].[Dzien Tyg].[All]" allUniqueName="[Order Date].[Dzien Tyg].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Dzien Tyg Slownie]" caption="Order Date.Dzien Tyg Slownie" attribute="1" defaultMemberUniqueName="[Order Date].[Dzien Tyg Slownie].[All]" allUniqueName="[Order Date].[Dzien Tyg Slownie].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Full Date]" caption="Order Date.Full Date" attribute="1" defaultMemberUniqueName="[Order Date].[Full Date].[All]" allUniqueName="[Order Date].[Full Date].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Kwartal]" caption="Order Date.Kwartal" attribute="1" defaultMemberUniqueName="[Order Date].[Kwartal].[All]" allUniqueName="[Order Date].[Kwartal].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Miesiac]" caption="Order Date.Miesiac" attribute="1" defaultMemberUniqueName="[Order Date].[Miesiac].[All]" allUniqueName="[Order Date].[Miesiac].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Miesiac Slownie]" caption="Order Date.Miesiac Slownie" attribute="1" defaultMemberUniqueName="[Order Date].[Miesiac Slownie].[All]" allUniqueName="[Order Date].[Miesiac Slownie].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[PK TIME]" caption="Order Date.PK TIME" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Order Date].[PK TIME].[All]" allUniqueName="[Order Date].[PK TIME].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Rok]" caption="Order Date.Rok" attribute="1" defaultMemberUniqueName="[Order Date].[Rok].[All]" allUniqueName="[Order Date].[Rok].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Date Hierarchy]" caption="Ship Date.Date Hierarchy" defaultMemberUniqueName="[Ship Date].[Date Hierarchy].[All]" allUniqueName="[Ship Date].[Date Hierarchy].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Dzien Miesiaca]" caption="Ship Date.Dzien Miesiaca" attribute="1" defaultMemberUniqueName="[Ship Date].[Dzien Miesiaca].[All]" allUniqueName="[Ship Date].[Dzien Miesiaca].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Dzien Tyg]" caption="Ship Date.Dzien Tyg" attribute="1" defaultMemberUniqueName="[Ship Date].[Dzien Tyg].[All]" allUniqueName="[Ship Date].[Dzien Tyg].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Dzien Tyg Slownie]" caption="Ship Date.Dzien Tyg Slownie" attribute="1" defaultMemberUniqueName="[Ship Date].[Dzien Tyg Slownie].[All]" allUniqueName="[Ship Date].[Dzien Tyg Slownie].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Full Date]" caption="Ship Date.Full Date" attribute="1" defaultMemberUniqueName="[Ship Date].[Full Date].[All]" allUniqueName="[Ship Date].[Full Date].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Kwartal]" caption="Ship Date.Kwartal" attribute="1" defaultMemberUniqueName="[Ship Date].[Kwartal].[All]" allUniqueName="[Ship Date].[Kwartal].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Miesiac]" caption="Ship Date.Miesiac" attribute="1" defaultMemberUniqueName="[Ship Date].[Miesiac].[All]" allUniqueName="[Ship Date].[Miesiac].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Miesiac Slownie]" caption="Ship Date.Miesiac Slownie" attribute="1" defaultMemberUniqueName="[Ship Date].[Miesiac Slownie].[All]" allUniqueName="[Ship Date].[Miesiac Slownie].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[PK TIME]" caption="Ship Date.PK TIME" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Ship Date].[PK TIME].[All]" allUniqueName="[Ship Date].[PK TIME].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Ship Date].[Rok]" caption="Ship Date.Rok" attribute="1" defaultMemberUniqueName="[Ship Date].[Rok].[All]" allUniqueName="[Ship Date].[Rok].[All]" dimensionUniqueName="[Ship Date]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Order Qty]" caption="Order Qty" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Unit Price Discount]" caption="Unit Price Discount" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Line Total]" caption="Line Total" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[FACT SALES Count]" caption="FACT SALES Count" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Max Discount]" caption="Max Discount" measure="1" displayFolder="" measureGroup="FACT SALES" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="10"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Max OrderQty]" caption="Max OrderQty" measure="1" displayFolder="" measureGroup="FACT SALES" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sales Person ID Distinct Count]" caption="Sales Person ID Distinct Count" measure="1" displayFolder="" measureGroup="FACT SALES 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Customer ID Distinct Count]" caption="Customer ID Distinct Count" measure="1" displayFolder="" measureGroup="FACT SALES 2" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Product ID Distinct Count]" caption="Product ID Distinct Count" measure="1" displayFolder="" measureGroup="FACT SALES 3" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[AvgUnitPriceDiscount]" caption="AvgUnitPriceDiscount" measure="1" displayFolder="" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="6">
+    <dimension name="DIM CUSTOMER" uniqueName="[DIM CUSTOMER]" caption="DIM CUSTOMER"/>
+    <dimension name="DIM PRODUCT" uniqueName="[DIM PRODUCT]" caption="DIM PRODUCT"/>
+    <dimension name="DIM SALESPERSON" uniqueName="[DIM SALESPERSON]" caption="DIM SALESPERSON"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Order Date" uniqueName="[Order Date]" caption="Order Date"/>
+    <dimension name="Ship Date" uniqueName="[Ship Date]" caption="Ship Date"/>
+  </dimensions>
+  <measureGroups count="4">
+    <measureGroup name="FACT SALES" caption="FACT SALES"/>
+    <measureGroup name="FACT SALES 1" caption="FACT SALES 1"/>
+    <measureGroup name="FACT SALES 2" caption="FACT SALES 2"/>
+    <measureGroup name="FACT SALES 3" caption="FACT SALES 3"/>
+  </measureGroups>
+  <maps count="20">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
+    <map measureGroup="1" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="1" dimension="4"/>
+    <map measureGroup="1" dimension="5"/>
+    <map measureGroup="2" dimension="0"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="4"/>
+    <map measureGroup="2" dimension="5"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="4"/>
+    <map measureGroup="3" dimension="5"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6298DF2-48AC-446A-AECE-C7261F3F416A}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
   <location ref="A4:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
@@ -8974,7 +9206,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{59E02679-9E90-44E8-B5B9-A2005CF33EBD}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{59E02679-9E90-44E8-B5B9-A2005CF33EBD}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
   <location ref="A4:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
@@ -9068,29 +9300,8 @@
   <dataFields count="1">
     <dataField fld="10" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="2" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8" series="1">
+  <chartFormats count="4">
+    <chartFormat chart="2" format="11" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9102,7 +9313,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="9" series="1">
+    <chartFormat chart="2" format="12" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9114,7 +9325,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="10" series="1">
+    <chartFormat chart="2" format="13" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9122,6 +9333,18 @@
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -9854,7 +10077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4821A9C8-C5C5-4200-B2F2-6E1163641FC3}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -10098,8 +10321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649D47CE-5CE8-4170-B1D5-EF78E258C8C0}">
   <dimension ref="A4:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10110,11 +10333,16 @@
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>43</v>
@@ -10144,100 +10372,100 @@
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>1032</v>
-      </c>
-      <c r="C6">
-        <v>7963</v>
-      </c>
-      <c r="D6">
-        <v>2246</v>
-      </c>
-      <c r="E6">
-        <v>1647</v>
-      </c>
-      <c r="F6">
-        <v>12888</v>
+      <c r="B6" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>5750</v>
-      </c>
-      <c r="C7">
-        <v>28494</v>
-      </c>
-      <c r="D7">
-        <v>19228</v>
-      </c>
-      <c r="E7">
-        <v>15107</v>
-      </c>
-      <c r="F7">
-        <v>68579</v>
+      <c r="B7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>32153</v>
-      </c>
-      <c r="C8">
-        <v>37748</v>
-      </c>
-      <c r="D8">
-        <v>37180</v>
-      </c>
-      <c r="E8">
-        <v>24707</v>
-      </c>
-      <c r="F8">
-        <v>131788</v>
+      <c r="B8" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>22997</v>
-      </c>
-      <c r="C9">
-        <v>16063</v>
-      </c>
-      <c r="D9">
-        <v>15016</v>
-      </c>
-      <c r="E9">
-        <v>7583</v>
-      </c>
-      <c r="F9">
-        <v>61659</v>
+      <c r="B9" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>61932</v>
-      </c>
-      <c r="C10">
-        <v>90268</v>
-      </c>
-      <c r="D10">
-        <v>73670</v>
-      </c>
-      <c r="E10">
-        <v>49044</v>
-      </c>
-      <c r="F10">
-        <v>274914</v>
+      <c r="B10" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/lab06/ExcelAnalysis.xlsx
+++ b/lab06/ExcelAnalysis.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jantar\uni-data-warehouse\lab06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D8851B-065E-44A9-A22D-3FFDA87E59A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E750113-F218-45CC-8E71-A0D7A2F5F494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E48C8BCD-939F-42B2-9A29-188705BE0DA9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{E48C8BCD-939F-42B2-9A29-188705BE0DA9}"/>
   </bookViews>
   <sheets>
     <sheet name="bike sales" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
   <calcPr calcId="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="2" r:id="rId5"/>
-    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="19" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2286,6 +2286,462 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -8356,16 +8812,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>933449</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>42864</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8806,7 +9262,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jantar" refreshedDate="45781.90054722222" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC43C714-3A94-4D24-A523-F366C8B6633A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jantar" refreshedDate="45782.484770486109" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{AC43C714-3A94-4D24-A523-F366C8B6633A}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="11">
     <cacheField name="[DIM PRODUCT].[Category Name].[Category Name]" caption="Category Name" numFmtId="0" hierarchy="7" level="1">
@@ -9206,7 +9662,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{59E02679-9E90-44E8-B5B9-A2005CF33EBD}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{59E02679-9E90-44E8-B5B9-A2005CF33EBD}" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
   <location ref="A4:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
@@ -9433,7 +9889,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DED4066-AE2E-47FD-8DCC-DCC76D438D76}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="9" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0DED4066-AE2E-47FD-8DCC-DCC76D438D76}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="9" fieldListSortAscending="1">
   <location ref="A4:G29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
@@ -10321,8 +10777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649D47CE-5CE8-4170-B1D5-EF78E258C8C0}">
   <dimension ref="A4:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10333,11 +10789,11 @@
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
